--- a/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-09-28.xlsx
+++ b/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-09-28.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,438 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>711SPRNKLEPR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sprinkles - Lavander</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3639225435</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Compound - Mocha</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10207041</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Spice - Clove (Ground)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10207030</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Herb - Chives (Dried)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>164.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>164.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>335AJ330810</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Panini Sheets - 16x8 3/8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>207.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>477102016</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Doilies - Lace (16")</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>433SLINERBL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - Silicone Coated</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>307.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>500CTOUT160</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Java Box (160oz)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>284.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5000TOUT96</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Java Box (96oz)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>245.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>245882WB</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Box Cake - 8x8x2.5 (window)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>68.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>137.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>130PPF0628M1M</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bag - Perforated (6x28)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>109.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>588ESP1220</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Urnex - Cafiza</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>112.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>112.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>588MILK632</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Urnex - Rinza</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>433qlinerbl</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - White</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>46.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>130TONG10BLK</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Black Plastic Tongs - 10.5"</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3463318BK</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Black Plastic Spreader 7.51"</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>46.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>46.94</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
